--- a/biology/Botanique/Tubéreuse/Tubéreuse.xlsx
+++ b/biology/Botanique/Tubéreuse/Tubéreuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tub%C3%A9reuse</t>
+          <t>Tubéreuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polianthes tuberosa
-La tubéreuse (Polianthes tuberosa) est une plante herbacée appartenant au genre Agave de la famille des Agavaceae  ou, plus récemment, à celle des Asparagaceae, selon la classification phylogénétique APG III (2009)[2].
+La tubéreuse (Polianthes tuberosa) est une plante herbacée appartenant au genre Agave de la famille des Agavaceae  ou, plus récemment, à celle des Asparagaceae, selon la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tub%C3%A9reuse</t>
+          <t>Tubéreuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire du Mexique, elle a été introduite en Europe puis en Asie à partir du XVIe siècle. Elle était autrefois abondante dans la région de Grasse, et elle recommence à être cultivée aujourd'hui, et c'est en Inde que les récoltes sont les plus abondantes. La tubéreuse est surtout utilisée pour la fleur coupée et pour la parfumerie. On peut aussi la cultiver en pot, tout en sachant que son bulbe ne fleurit qu'une fois.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tub%C3%A9reuse</t>
+          <t>Tubéreuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>En parfumerie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'essence naturelle de tubéreuse était jadis obtenue par la technique de l'enfleurage à froid (les fleurs étant déposées sur des plaques enduites de graisse inodore, qui s'imprégnait de leur parfum. Un solvant tel que l'éthanol permettait d'obtenir par la suite une essence dite « absolue »).
 Aujourd'hui, l'enfleurage à froid n'est plus guère utilisé. La fleur est directement extraite par des solvants volatils. (source : osMoz, esprit de Parfum)
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tub%C3%A9reuse</t>
+          <t>Tubéreuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Langage des fleurs
-Dans le langage des fleurs, la tubéreuse symbolise le désir[3].
-Calendrier républicain
-Le jour de la tubéreuse était le nom attribué au 6e jour du mois de fructidor du calendrier républicain ou révolutionnaire français[4], généralement chaque 23 août du calendrier grégorien.
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la tubéreuse symbolise le désir.
 </t>
         </is>
       </c>
@@ -593,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tub%C3%A9reuse</t>
+          <t>Tubéreuse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,15 +627,92 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jour de la tubéreuse était le nom attribué au 6e jour du mois de fructidor du calendrier républicain ou révolutionnaire français, généralement chaque 23 août du calendrier grégorien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tubéreuse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tub%C3%A9reuse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dans l'histoire
-Parmi les anecdotes historiques, on[Qui ?] dit que Madame de La Vallière, maîtresse de Louis XIV, faisait mettre dans sa chambre des bouquets de tubéreuses. En effet, la tubéreuse passait pour incommoder les femmes enceintes, et elle voulait prouver à la reine qu'elle n'était pas enceinte. En Italie enfin, on interdisait aux jeunes filles de se promener le soir dans les jardins où poussait la tubéreuse, car elles n'auraient pas su résister aux jeunes gens, eux-mêmes grisés par son parfum érotique.[réf. nécessaire]
-Dans la culture populaire
-Dans la BD Les Schtroumpfs noirs, de Peyo, traduite en anglais sous le titre The Purple Smurfs (« Les Schtroumpfs violets ») et dont l'adaptation en dessin animé est intitulée La mouche Bzz, le pollen de tubéreuse est utilisé comme remède contre l'épidémie causée par la mouche Bzz. En effet, la piqûre de cette mouche redoutable a transformé les Schtroumpfs en zombies très agressifs et a fait passer leur couleur du bleu au noir (au mauve dans le dessin animé).
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dans l'histoire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les anecdotes historiques, on[Qui ?] dit que Madame de La Vallière, maîtresse de Louis XIV, faisait mettre dans sa chambre des bouquets de tubéreuses. En effet, la tubéreuse passait pour incommoder les femmes enceintes, et elle voulait prouver à la reine qu'elle n'était pas enceinte. En Italie enfin, on interdisait aux jeunes filles de se promener le soir dans les jardins où poussait la tubéreuse, car elles n'auraient pas su résister aux jeunes gens, eux-mêmes grisés par son parfum érotique.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tubéreuse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tub%C3%A9reuse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dans la BD Les Schtroumpfs noirs, de Peyo, traduite en anglais sous le titre The Purple Smurfs (« Les Schtroumpfs violets ») et dont l'adaptation en dessin animé est intitulée La mouche Bzz, le pollen de tubéreuse est utilisé comme remède contre l'épidémie causée par la mouche Bzz. En effet, la piqûre de cette mouche redoutable a transformé les Schtroumpfs en zombies très agressifs et a fait passer leur couleur du bleu au noir (au mauve dans le dessin animé).
 Nino Ferrer y fait référence dans la chanson Barberine, tirée de son album Ex Libris.</t>
         </is>
       </c>
